--- a/code/processing/growth_curves_plate_reader/20201019_r1_O1_ST_tetracycline_sucrose/20201019_plate_layout.xlsx
+++ b/code/processing/growth_curves_plate_reader/20201019_r1_O1_ST_tetracycline_sucrose/20201019_plate_layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomroschinger/git/evo_mwc/code/processing/growth_curves_plate_reader/20201019_r1_O1_ST_tetracycline_sucrose/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B4A9DBD-9794-2148-B738-5995F819BEF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6A0926-C936-5449-9876-AF0C3387FC57}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="strain" sheetId="1" r:id="rId1"/>
@@ -681,7 +681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -1655,8 +1655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1672,31 +1672,31 @@
         <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
         <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H1" t="s">
         <v>89</v>
       </c>
       <c r="I1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
         <v>90</v>
       </c>
       <c r="K1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L1" t="s">
         <v>84</v>
@@ -1710,31 +1710,31 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
         <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F2" t="s">
         <v>88</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H2" t="s">
         <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J2" t="s">
         <v>90</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L2" t="s">
         <v>84</v>
@@ -1748,31 +1748,31 @@
         <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F3" t="s">
         <v>88</v>
       </c>
       <c r="G3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s">
         <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J3" t="s">
         <v>90</v>
       </c>
       <c r="K3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
         <v>84</v>
@@ -1786,31 +1786,31 @@
         <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>87</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
         <v>88</v>
       </c>
       <c r="G4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
         <v>90</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s">
         <v>84</v>
@@ -1824,31 +1824,31 @@
         <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F5" t="s">
         <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
         <v>90</v>
       </c>
       <c r="K5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s">
         <v>84</v>
@@ -1862,31 +1862,31 @@
         <v>84</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>87</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
         <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
         <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
         <v>84</v>
@@ -1900,31 +1900,31 @@
         <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>87</v>
       </c>
       <c r="E7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
         <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
         <v>90</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
         <v>84</v>
@@ -1938,31 +1938,31 @@
         <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" t="s">
         <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s">
         <v>89</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
         <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s">
         <v>84</v>
@@ -1978,7 +1978,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2099,7 +2099,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -2129,7 +2129,7 @@
         <v>86</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s">
         <v>85</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -2167,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L5" t="s">
         <v>85</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>91</v>
@@ -2205,7 +2205,7 @@
         <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
         <v>85</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>91</v>
@@ -2243,7 +2243,7 @@
         <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s">
         <v>85</v>
